--- a/Code/Results/Cases/Case_4_56/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_56/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,78 +406,81 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>

--- a/Code/Results/Cases/Case_4_56/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_56/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,78 +409,84 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>

--- a/Code/Results/Cases/Case_4_56/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_56/res_line/loading_percent.xlsx
@@ -420,120 +420,1128 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
+      <c r="B2">
+        <v>23.18469125533871</v>
+      </c>
+      <c r="C2">
+        <v>12.2546204445881</v>
+      </c>
+      <c r="D2">
+        <v>7.180169352797177</v>
+      </c>
+      <c r="E2">
+        <v>6.723088330046571</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>2.070901438084439</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>7.28741284243182</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>11.70418456588185</v>
+      </c>
+      <c r="O2">
+        <v>19.41796391875735</v>
+      </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>21.58415989170075</v>
+      </c>
+      <c r="C3">
+        <v>11.65092829340809</v>
+      </c>
+      <c r="D3">
+        <v>6.677034392985915</v>
+      </c>
+      <c r="E3">
+        <v>6.749473683676147</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>2.078206318238531</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>7.028382195040262</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>11.93701073553588</v>
+      </c>
+      <c r="O3">
+        <v>18.89611850568186</v>
+      </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>20.54613012049474</v>
+      </c>
+      <c r="C4">
+        <v>11.26420129689605</v>
+      </c>
+      <c r="D4">
+        <v>6.351478086281524</v>
+      </c>
+      <c r="E4">
+        <v>6.77002851008077</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>2.082818883590289</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>6.868885730144057</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>12.08281261814798</v>
+      </c>
+      <c r="O4">
+        <v>18.59029580124917</v>
+      </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>20.10912068126051</v>
+      </c>
+      <c r="C5">
+        <v>11.10265730360509</v>
+      </c>
+      <c r="D5">
+        <v>6.218733343427367</v>
+      </c>
+      <c r="E5">
+        <v>6.779459797721922</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>2.084731706814621</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>6.803861376836057</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>12.14297511377761</v>
+      </c>
+      <c r="O5">
+        <v>18.46938838225878</v>
+      </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>20.03570705451886</v>
+      </c>
+      <c r="C6">
+        <v>11.07559749704361</v>
+      </c>
+      <c r="D6">
+        <v>6.199234079466342</v>
+      </c>
+      <c r="E6">
+        <v>6.781088438267751</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>2.085051365031569</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>6.793065058372171</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>12.15301106344238</v>
+      </c>
+      <c r="O6">
+        <v>18.44953756996238</v>
+      </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>20.54029328519989</v>
+      </c>
+      <c r="C7">
+        <v>11.2620385178213</v>
+      </c>
+      <c r="D7">
+        <v>6.349649074159356</v>
+      </c>
+      <c r="E7">
+        <v>6.770151483585376</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>2.08284454483938</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>6.868008785395017</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>12.08362092523419</v>
+      </c>
+      <c r="O7">
+        <v>18.58865009106368</v>
+      </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>22.644242849668</v>
+      </c>
+      <c r="C8">
+        <v>12.0498465993726</v>
+      </c>
+      <c r="D8">
+        <v>7.010112916584747</v>
+      </c>
+      <c r="E8">
+        <v>6.731257901448329</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>2.073394441879803</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>7.198241165674202</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>11.78389184123759</v>
+      </c>
+      <c r="O8">
+        <v>19.23503431770563</v>
+      </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>26.33620121322518</v>
+      </c>
+      <c r="C9">
+        <v>13.46449274021097</v>
+      </c>
+      <c r="D9">
+        <v>8.175399162390551</v>
+      </c>
+      <c r="E9">
+        <v>6.691393751601956</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>2.05581774950006</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>7.838953133893117</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>11.21719595277544</v>
+      </c>
+      <c r="O9">
+        <v>20.61603889153902</v>
+      </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>28.79151341821529</v>
+      </c>
+      <c r="C10">
+        <v>14.42195019257348</v>
+      </c>
+      <c r="D10">
+        <v>8.955364985434304</v>
+      </c>
+      <c r="E10">
+        <v>6.686963445661432</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>2.04340293959368</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>8.301771973242179</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>10.81146086158344</v>
+      </c>
+      <c r="O10">
+        <v>21.69688782531188</v>
+      </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>29.85441242228084</v>
+      </c>
+      <c r="C11">
+        <v>14.83954354019181</v>
+      </c>
+      <c r="D11">
+        <v>9.294354773308353</v>
+      </c>
+      <c r="E11">
+        <v>6.690953930445352</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>2.037843159573422</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>8.510021435070204</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>10.62866047249884</v>
+      </c>
+      <c r="O11">
+        <v>22.20251532735286</v>
+      </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>30.2492896542442</v>
+      </c>
+      <c r="C12">
+        <v>14.99509373922101</v>
+      </c>
+      <c r="D12">
+        <v>9.42050807557353</v>
+      </c>
+      <c r="E12">
+        <v>6.693381324500587</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>2.03574859616002</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>8.588516286517715</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>10.55964711847638</v>
+      </c>
+      <c r="O12">
+        <v>22.39596806050459</v>
+      </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>30.16458214151075</v>
+      </c>
+      <c r="C13">
+        <v>14.96170799342442</v>
+      </c>
+      <c r="D13">
+        <v>9.393436204541164</v>
+      </c>
+      <c r="E13">
+        <v>6.692816929025787</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>2.036199248053148</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>8.571627687839142</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>10.5745018300412</v>
+      </c>
+      <c r="O13">
+        <v>22.35421651585611</v>
+      </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>29.88705101486818</v>
+      </c>
+      <c r="C14">
+        <v>14.85239248220391</v>
+      </c>
+      <c r="D14">
+        <v>9.304777509282848</v>
+      </c>
+      <c r="E14">
+        <v>6.691134960881491</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>2.037670633042323</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>8.516486728377497</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>10.62297878050542</v>
+      </c>
+      <c r="O14">
+        <v>22.21839112250038</v>
+      </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>29.71606755355262</v>
+      </c>
+      <c r="C15">
+        <v>14.78509734063581</v>
+      </c>
+      <c r="D15">
+        <v>9.250184926026044</v>
+      </c>
+      <c r="E15">
+        <v>6.690225632334693</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>2.038573249155272</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>8.482662931650673</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>10.65269815698687</v>
+      </c>
+      <c r="O15">
+        <v>22.13545201487453</v>
+      </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16">
+        <v>28.7209757737815</v>
+      </c>
+      <c r="C16">
+        <v>14.39429773788793</v>
+      </c>
+      <c r="D16">
+        <v>8.93289791035224</v>
+      </c>
+      <c r="E16">
+        <v>6.686827964574136</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>2.043767898916909</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>8.288113037869044</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>10.82343910838795</v>
+      </c>
+      <c r="O16">
+        <v>21.66412208871839</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17">
+        <v>28.09678331940574</v>
+      </c>
+      <c r="C17">
+        <v>14.14995040908041</v>
+      </c>
+      <c r="D17">
+        <v>8.734242164552938</v>
+      </c>
+      <c r="E17">
+        <v>6.686318657345865</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>2.046975887485169</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>8.168148025460034</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>10.92860522202367</v>
+      </c>
+      <c r="O17">
+        <v>21.3785256919948</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18">
+        <v>27.73266866816003</v>
+      </c>
+      <c r="C18">
+        <v>14.00771712305343</v>
+      </c>
+      <c r="D18">
+        <v>8.618487696405339</v>
+      </c>
+      <c r="E18">
+        <v>6.68658774293972</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>2.048829417859149</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>8.098933312352848</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>10.98926352835759</v>
+      </c>
+      <c r="O18">
+        <v>21.21557095125983</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19">
+        <v>27.60850610745147</v>
+      </c>
+      <c r="C19">
+        <v>13.95926915528295</v>
+      </c>
+      <c r="D19">
+        <v>8.579037039337594</v>
+      </c>
+      <c r="E19">
+        <v>6.686773808613678</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>2.049458483483986</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>8.075462899732798</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>11.00983184401584</v>
+      </c>
+      <c r="O19">
+        <v>21.16062374724125</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20">
+        <v>28.16375599703831</v>
+      </c>
+      <c r="C20">
+        <v>14.1761366756412</v>
+      </c>
+      <c r="D20">
+        <v>8.755543497798973</v>
+      </c>
+      <c r="E20">
+        <v>6.686314331679571</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>2.046633536960612</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>8.180940946308246</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>10.91739288279045</v>
+      </c>
+      <c r="O20">
+        <v>21.40879227768313</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21">
+        <v>29.9687741713154</v>
+      </c>
+      <c r="C21">
+        <v>14.88457115234007</v>
+      </c>
+      <c r="D21">
+        <v>9.330878325275044</v>
+      </c>
+      <c r="E21">
+        <v>6.691603698013491</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>2.037238173679749</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>8.532693092812265</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>10.60873462431048</v>
+      </c>
+      <c r="O21">
+        <v>22.25823260432182</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22">
+        <v>31.10412336708927</v>
+      </c>
+      <c r="C22">
+        <v>15.3325248811309</v>
+      </c>
+      <c r="D22">
+        <v>9.694014492472725</v>
+      </c>
+      <c r="E22">
+        <v>6.700427357508162</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>2.031159771883289</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>8.760448806677292</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>10.40820469534312</v>
+      </c>
+      <c r="O22">
+        <v>22.82495201067147</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23">
+        <v>30.50217004100335</v>
+      </c>
+      <c r="C23">
+        <v>15.09481754902371</v>
+      </c>
+      <c r="D23">
+        <v>9.501359271007605</v>
+      </c>
+      <c r="E23">
+        <v>6.695209000175288</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>2.034398900061134</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>8.639095582163224</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>10.51513762865647</v>
+      </c>
+      <c r="O23">
+        <v>22.52142726596527</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24">
+        <v>28.1334940385251</v>
+      </c>
+      <c r="C24">
+        <v>14.16430332996897</v>
+      </c>
+      <c r="D24">
+        <v>8.745917980729029</v>
+      </c>
+      <c r="E24">
+        <v>6.686314541101702</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>2.046788284794971</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>8.175158027802626</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>10.92246136463894</v>
+      </c>
+      <c r="O24">
+        <v>21.39510489484661</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
+      </c>
+      <c r="B25">
+        <v>25.38315247058951</v>
+      </c>
+      <c r="C25">
+        <v>13.09605644187477</v>
+      </c>
+      <c r="D25">
+        <v>7.873761573878742</v>
+      </c>
+      <c r="E25">
+        <v>6.698011997050306</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>2.060478700303579</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>7.666781138240138</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>11.36846863997909</v>
+      </c>
+      <c r="O25">
+        <v>20.230613982375</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_56/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_56/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>23.18469125533871</v>
+        <v>18.24971631898057</v>
       </c>
       <c r="C2">
-        <v>12.2546204445881</v>
+        <v>9.131796674211987</v>
       </c>
       <c r="D2">
-        <v>7.180169352797177</v>
+        <v>5.993911966954698</v>
       </c>
       <c r="E2">
-        <v>6.723088330046571</v>
+        <v>11.16960707678143</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.070901438084439</v>
+        <v>3.650426866380956</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>7.28741284243182</v>
+        <v>9.908986248679096</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>11.70418456588185</v>
+        <v>17.92730646606201</v>
       </c>
       <c r="O2">
-        <v>19.41796391875735</v>
+        <v>25.70840185818437</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>21.58415989170075</v>
+        <v>17.76209409227869</v>
       </c>
       <c r="C3">
-        <v>11.65092829340809</v>
+        <v>8.86726559832891</v>
       </c>
       <c r="D3">
-        <v>6.677034392985915</v>
+        <v>5.877203648217691</v>
       </c>
       <c r="E3">
-        <v>6.749473683676147</v>
+        <v>11.20378971940537</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.078206318238531</v>
+        <v>3.653170439028423</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>7.028382195040262</v>
+        <v>9.886328083618078</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>11.93701073553588</v>
+        <v>17.99481942739907</v>
       </c>
       <c r="O3">
-        <v>18.89611850568186</v>
+        <v>25.71293567331942</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>20.54613012049474</v>
+        <v>17.45957413723468</v>
       </c>
       <c r="C4">
-        <v>11.26420129689605</v>
+        <v>8.699274718298364</v>
       </c>
       <c r="D4">
-        <v>6.351478086281524</v>
+        <v>5.806216850924396</v>
       </c>
       <c r="E4">
-        <v>6.77002851008077</v>
+        <v>11.22652872423583</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.082818883590289</v>
+        <v>3.654944129145282</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>6.868885730144057</v>
+        <v>9.874260082675958</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>12.08281261814798</v>
+        <v>18.03820946756112</v>
       </c>
       <c r="O4">
-        <v>18.59029580124917</v>
+        <v>25.72300375325649</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>20.10912068126051</v>
+        <v>17.3357049778715</v>
       </c>
       <c r="C5">
-        <v>11.10265730360509</v>
+        <v>8.629479341981547</v>
       </c>
       <c r="D5">
-        <v>6.218733343427367</v>
+        <v>5.777502238205807</v>
       </c>
       <c r="E5">
-        <v>6.779459797721922</v>
+        <v>11.23623514668801</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.084731706814621</v>
+        <v>3.655689410017274</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>6.803861376836057</v>
+        <v>9.869809356184591</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>12.14297511377761</v>
+        <v>18.05637985636202</v>
       </c>
       <c r="O5">
-        <v>18.46938838225878</v>
+        <v>25.72893462336969</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>20.03570705451886</v>
+        <v>17.31510683947879</v>
       </c>
       <c r="C6">
-        <v>11.07559749704361</v>
+        <v>8.617811004393158</v>
       </c>
       <c r="D6">
-        <v>6.199234079466342</v>
+        <v>5.772748357039532</v>
       </c>
       <c r="E6">
-        <v>6.781088438267751</v>
+        <v>11.23787346720531</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.085051365031569</v>
+        <v>3.655814523790864</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>6.793065058372171</v>
+        <v>9.869098616883395</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>12.15301106344238</v>
+        <v>18.05942659173692</v>
       </c>
       <c r="O6">
-        <v>18.44953756996238</v>
+        <v>25.73002971880686</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>20.54029328519989</v>
+        <v>17.45790571887084</v>
       </c>
       <c r="C7">
-        <v>11.2620385178213</v>
+        <v>8.698338763539345</v>
       </c>
       <c r="D7">
-        <v>6.349649074159356</v>
+        <v>5.805828674587278</v>
       </c>
       <c r="E7">
-        <v>6.770151483585376</v>
+        <v>11.22665784670602</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.08284454483938</v>
+        <v>3.654954089110935</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>6.868008785395017</v>
+        <v>9.874198163306563</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>12.08362092523419</v>
+        <v>18.0384525394144</v>
       </c>
       <c r="O7">
-        <v>18.58865009106368</v>
+        <v>25.72307634315452</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>22.644242849668</v>
+        <v>18.08234472201384</v>
       </c>
       <c r="C8">
-        <v>12.0498465993726</v>
+        <v>9.041777665073141</v>
       </c>
       <c r="D8">
-        <v>7.010112916584747</v>
+        <v>5.953557616243973</v>
       </c>
       <c r="E8">
-        <v>6.731257901448329</v>
+        <v>11.18102980599603</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.073394441879803</v>
+        <v>3.651354398335009</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>7.198241165674202</v>
+        <v>9.900793069767479</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>11.78389184123759</v>
+        <v>17.95018389723532</v>
       </c>
       <c r="O8">
-        <v>19.23503431770563</v>
+        <v>25.70845142469641</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>26.33620121322518</v>
+        <v>19.27412443786747</v>
       </c>
       <c r="C9">
-        <v>13.46449274021097</v>
+        <v>9.668617931840421</v>
       </c>
       <c r="D9">
-        <v>8.175399162390551</v>
+        <v>6.246683048012276</v>
       </c>
       <c r="E9">
-        <v>6.691393751601956</v>
+        <v>11.10545085208855</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.05581774950006</v>
+        <v>3.644999100672438</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>7.838953133893117</v>
+        <v>9.967415219573718</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>11.21719595277544</v>
+        <v>17.79238473167417</v>
       </c>
       <c r="O9">
-        <v>20.61603889153902</v>
+        <v>25.7376802844897</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>28.79151341821529</v>
+        <v>20.11985487985555</v>
       </c>
       <c r="C10">
-        <v>14.42195019257348</v>
+        <v>10.09779095434224</v>
       </c>
       <c r="D10">
-        <v>8.955364985434304</v>
+        <v>6.461644001687021</v>
       </c>
       <c r="E10">
-        <v>6.686963445661432</v>
+        <v>11.05840387700759</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.04340293959368</v>
+        <v>3.640753973742433</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>8.301771973242179</v>
+        <v>10.02494121936246</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>10.81146086158344</v>
+        <v>17.68567183029592</v>
       </c>
       <c r="O10">
-        <v>21.69688782531188</v>
+        <v>25.79453113809845</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>29.85441242228084</v>
+        <v>20.49626152144512</v>
       </c>
       <c r="C11">
-        <v>14.83954354019181</v>
+        <v>10.28570061204379</v>
       </c>
       <c r="D11">
-        <v>9.294354773308353</v>
+        <v>6.558849212125477</v>
       </c>
       <c r="E11">
-        <v>6.690953930445352</v>
+        <v>11.03884441432294</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.037843159573422</v>
+        <v>3.638913808821585</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>8.510021435070204</v>
+        <v>10.05291459391588</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>10.62866047249884</v>
+        <v>17.639106121419</v>
       </c>
       <c r="O11">
-        <v>22.20251532735286</v>
+        <v>25.8280642285554</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>30.2492896542442</v>
+        <v>20.63746301707219</v>
       </c>
       <c r="C12">
-        <v>14.99509373922101</v>
+        <v>10.35576647966658</v>
       </c>
       <c r="D12">
-        <v>9.42050807557353</v>
+        <v>6.595535472731903</v>
       </c>
       <c r="E12">
-        <v>6.693381324500587</v>
+        <v>11.03170287691598</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.03574859616002</v>
+        <v>3.638229987688256</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>8.588516286517715</v>
+        <v>10.06376123798956</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>10.55964711847638</v>
+        <v>17.62175579818257</v>
       </c>
       <c r="O12">
-        <v>22.39596806050459</v>
+        <v>25.84186215594564</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>30.16458214151075</v>
+        <v>20.60711422974389</v>
       </c>
       <c r="C13">
-        <v>14.96170799342442</v>
+        <v>10.34072564961583</v>
       </c>
       <c r="D13">
-        <v>9.393436204541164</v>
+        <v>6.58764051977742</v>
       </c>
       <c r="E13">
-        <v>6.692816929025787</v>
+        <v>11.03322913544335</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.036199248053148</v>
+        <v>3.638376683337103</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>8.571627687839142</v>
+        <v>10.06141402946045</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>10.5745018300412</v>
+        <v>17.62547993203437</v>
       </c>
       <c r="O13">
-        <v>22.35421651585611</v>
+        <v>25.83884168679857</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>29.88705101486818</v>
+        <v>20.50790577215614</v>
       </c>
       <c r="C14">
-        <v>14.85239248220391</v>
+        <v>10.29148705197628</v>
       </c>
       <c r="D14">
-        <v>9.304777509282848</v>
+        <v>6.561870102283357</v>
       </c>
       <c r="E14">
-        <v>6.691134960881491</v>
+        <v>11.0382515590958</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.037670633042323</v>
+        <v>3.638857290123629</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>8.516486728377497</v>
+        <v>10.05380190280932</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>10.62297878050542</v>
+        <v>17.63767303415146</v>
       </c>
       <c r="O14">
-        <v>22.21839112250038</v>
+        <v>25.82917737794538</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>29.71606755355262</v>
+        <v>20.44695988547787</v>
       </c>
       <c r="C15">
-        <v>14.78509734063581</v>
+        <v>10.26118378503595</v>
       </c>
       <c r="D15">
-        <v>9.250184926026044</v>
+        <v>6.54606778761625</v>
       </c>
       <c r="E15">
-        <v>6.690225632334693</v>
+        <v>11.04136248416509</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.038573249155272</v>
+        <v>3.639153367758027</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>8.482662931650673</v>
+        <v>10.04917212252842</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>10.65269815698687</v>
+        <v>17.6451784877092</v>
       </c>
       <c r="O15">
-        <v>22.13545201487453</v>
+        <v>25.8234007935888</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>28.7209757737815</v>
+        <v>20.09507622206002</v>
       </c>
       <c r="C16">
-        <v>14.39429773788793</v>
+        <v>10.08535987621001</v>
       </c>
       <c r="D16">
-        <v>8.93289791035224</v>
+        <v>6.455276276250774</v>
       </c>
       <c r="E16">
-        <v>6.686827964574136</v>
+        <v>11.05971923131919</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.043767898916909</v>
+        <v>3.640876057189958</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>8.288113037869044</v>
+        <v>10.02314892113352</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>10.82343910838795</v>
+        <v>17.68875470100517</v>
       </c>
       <c r="O16">
-        <v>21.66412208871839</v>
+        <v>25.79249377491926</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>28.09678331940574</v>
+        <v>19.8769730493767</v>
       </c>
       <c r="C17">
-        <v>14.14995040908041</v>
+        <v>9.975593272341273</v>
       </c>
       <c r="D17">
-        <v>8.734242164552938</v>
+        <v>6.399400831426524</v>
       </c>
       <c r="E17">
-        <v>6.686318657345865</v>
+        <v>11.07145258471903</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.046975887485169</v>
+        <v>3.641956118758502</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>8.168148025460034</v>
+        <v>10.00764272666764</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>10.92860522202367</v>
+        <v>17.71599303611371</v>
       </c>
       <c r="O17">
-        <v>21.3785256919948</v>
+        <v>25.77549611531478</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>27.73266866816003</v>
+        <v>19.75075023781397</v>
       </c>
       <c r="C18">
-        <v>14.00771712305343</v>
+        <v>9.911771132809696</v>
       </c>
       <c r="D18">
-        <v>8.618487696405339</v>
+        <v>6.367210254175776</v>
       </c>
       <c r="E18">
-        <v>6.68658774293972</v>
+        <v>11.07837470293052</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.048829417859149</v>
+        <v>3.642585907851785</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>8.098933312352848</v>
+        <v>9.998894189547974</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>10.98926352835759</v>
+        <v>17.73184611730078</v>
       </c>
       <c r="O18">
-        <v>21.21557095125983</v>
+        <v>25.76644186942115</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>27.60850610745147</v>
+        <v>19.70788458747102</v>
       </c>
       <c r="C19">
-        <v>13.95926915528295</v>
+        <v>9.89004524882828</v>
       </c>
       <c r="D19">
-        <v>8.579037039337594</v>
+        <v>6.356303301518771</v>
       </c>
       <c r="E19">
-        <v>6.686773808613678</v>
+        <v>11.08074818732531</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.049458483483986</v>
+        <v>3.642800617055949</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>8.075462899732798</v>
+        <v>9.995961489466373</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>11.00983184401584</v>
+        <v>17.73724574058667</v>
       </c>
       <c r="O19">
-        <v>21.16062374724125</v>
+        <v>25.76350040591263</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>28.16375599703831</v>
+        <v>19.90027182645915</v>
       </c>
       <c r="C20">
-        <v>14.1761366756412</v>
+        <v>9.987349538245288</v>
       </c>
       <c r="D20">
-        <v>8.755543497798973</v>
+        <v>6.405354594894716</v>
       </c>
       <c r="E20">
-        <v>6.686314331679571</v>
+        <v>11.07018560065706</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.046633536960612</v>
+        <v>3.641840258303296</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>8.180940946308246</v>
+        <v>10.00927581140683</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>10.91739288279045</v>
+        <v>17.71307419656018</v>
       </c>
       <c r="O20">
-        <v>21.40879227768313</v>
+        <v>25.77723080442497</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>29.9687741713154</v>
+        <v>20.53708299397731</v>
       </c>
       <c r="C21">
-        <v>14.88457115234007</v>
+        <v>10.30597952786146</v>
       </c>
       <c r="D21">
-        <v>9.330878325275044</v>
+        <v>6.569443148668483</v>
       </c>
       <c r="E21">
-        <v>6.691603698013491</v>
+        <v>11.03676915179049</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.037238173679749</v>
+        <v>3.638715771753919</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>8.532693092812265</v>
+        <v>10.05603093019963</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>10.60873462431048</v>
+        <v>17.63408395238733</v>
       </c>
       <c r="O21">
-        <v>22.25823260432182</v>
+        <v>25.83198620926658</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>31.10412336708927</v>
+        <v>20.94543554581456</v>
       </c>
       <c r="C22">
-        <v>15.3325248811309</v>
+        <v>10.50784601182544</v>
       </c>
       <c r="D22">
-        <v>9.694014492472725</v>
+        <v>6.67594927993144</v>
       </c>
       <c r="E22">
-        <v>6.700427357508162</v>
+        <v>11.01647551882548</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.031159771883289</v>
+        <v>3.63674953511708</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>8.760448806677292</v>
+        <v>10.08806415358011</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>10.40820469534312</v>
+        <v>17.58410874343071</v>
       </c>
       <c r="O22">
-        <v>22.82495201067147</v>
+        <v>25.87417919809993</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>30.50217004100335</v>
+        <v>20.72825026572563</v>
       </c>
       <c r="C23">
-        <v>15.09481754902371</v>
+        <v>10.40070112827279</v>
       </c>
       <c r="D23">
-        <v>9.501359271007605</v>
+        <v>6.619184765692003</v>
       </c>
       <c r="E23">
-        <v>6.695209000175288</v>
+        <v>11.02716507134855</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.034398900061134</v>
+        <v>3.637792040690115</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>8.639095582163224</v>
+        <v>10.07083434889517</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>10.51513762865647</v>
+        <v>17.61063098667409</v>
       </c>
       <c r="O23">
-        <v>22.52142726596527</v>
+        <v>25.85107524737335</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>28.1334940385251</v>
+        <v>19.88974103131321</v>
       </c>
       <c r="C24">
-        <v>14.16430332996897</v>
+        <v>9.982036757292525</v>
       </c>
       <c r="D24">
-        <v>8.745917980729029</v>
+        <v>6.402663104242731</v>
       </c>
       <c r="E24">
-        <v>6.686314541101702</v>
+        <v>11.07075785452475</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.046788284794971</v>
+        <v>3.64189261125007</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>8.175158027802626</v>
+        <v>10.00853697573215</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>10.92246136463894</v>
+        <v>17.71439320133883</v>
       </c>
       <c r="O24">
-        <v>21.39510489484661</v>
+        <v>25.77644431481546</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>25.38315247058951</v>
+        <v>18.95629179661424</v>
       </c>
       <c r="C25">
-        <v>13.09605644187477</v>
+        <v>9.504356630835371</v>
       </c>
       <c r="D25">
-        <v>7.873761573878742</v>
+        <v>6.167279598646601</v>
       </c>
       <c r="E25">
-        <v>6.698011997050306</v>
+        <v>11.12440824784999</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.060478700303579</v>
+        <v>3.646643548440361</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>7.666781138240138</v>
+        <v>9.947866568177682</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>11.36846863997909</v>
+        <v>17.83344675074333</v>
       </c>
       <c r="O25">
-        <v>20.230613982375</v>
+        <v>25.72356076127379</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_56/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_56/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.24971631898057</v>
+        <v>23.18469125533873</v>
       </c>
       <c r="C2">
-        <v>9.131796674211987</v>
+        <v>12.2546204445881</v>
       </c>
       <c r="D2">
-        <v>5.993911966954698</v>
+        <v>7.180169352797185</v>
       </c>
       <c r="E2">
-        <v>11.16960707678143</v>
+        <v>6.72308833004657</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>3.650426866380956</v>
+        <v>2.070901438084706</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>9.908986248679096</v>
+        <v>7.287412842431805</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>17.92730646606201</v>
+        <v>11.70418456588182</v>
       </c>
       <c r="O2">
-        <v>25.70840185818437</v>
+        <v>19.41796391875731</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.76209409227869</v>
+        <v>21.58415989170071</v>
       </c>
       <c r="C3">
-        <v>8.86726559832891</v>
+        <v>11.65092829340789</v>
       </c>
       <c r="D3">
-        <v>5.877203648217691</v>
+        <v>6.67703439298602</v>
       </c>
       <c r="E3">
-        <v>11.20378971940537</v>
+        <v>6.749473683676094</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>3.653170439028423</v>
+        <v>2.078206318238668</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>9.886328083618078</v>
+        <v>7.028382195040265</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>17.99481942739907</v>
+        <v>11.93701073553588</v>
       </c>
       <c r="O3">
-        <v>25.71293567331942</v>
+        <v>18.89611850568194</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.45957413723468</v>
+        <v>20.54613012049473</v>
       </c>
       <c r="C4">
-        <v>8.699274718298364</v>
+        <v>11.26420129689592</v>
       </c>
       <c r="D4">
-        <v>5.806216850924396</v>
+        <v>6.351478086281608</v>
       </c>
       <c r="E4">
-        <v>11.22652872423583</v>
+        <v>6.770028510080825</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>3.654944129145282</v>
+        <v>2.082818883590157</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>9.874260082675958</v>
+        <v>6.868885730144049</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>18.03820946756112</v>
+        <v>12.08281261814798</v>
       </c>
       <c r="O4">
-        <v>25.72300375325649</v>
+        <v>18.59029580124925</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.3357049778715</v>
+        <v>20.10912068126052</v>
       </c>
       <c r="C5">
-        <v>8.629479341981547</v>
+        <v>11.10265730360497</v>
       </c>
       <c r="D5">
-        <v>5.777502238205807</v>
+        <v>6.218733343427385</v>
       </c>
       <c r="E5">
-        <v>11.23623514668801</v>
+        <v>6.779459797722039</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>3.655689410017274</v>
+        <v>2.08473170681462</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>9.869809356184591</v>
+        <v>6.803861376836084</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>18.05637985636202</v>
+        <v>12.14297511377771</v>
       </c>
       <c r="O5">
-        <v>25.72893462336969</v>
+        <v>18.46938838225888</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.31510683947879</v>
+        <v>20.03570705451884</v>
       </c>
       <c r="C6">
-        <v>8.617811004393158</v>
+        <v>11.07559749704376</v>
       </c>
       <c r="D6">
-        <v>5.772748357039532</v>
+        <v>6.199234079466342</v>
       </c>
       <c r="E6">
-        <v>11.23787346720531</v>
+        <v>6.781088438267817</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>3.655814523790864</v>
+        <v>2.085051365031566</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>9.869098616883395</v>
+        <v>6.793065058372166</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>18.05942659173692</v>
+        <v>12.15301106344242</v>
       </c>
       <c r="O6">
-        <v>25.73002971880686</v>
+        <v>18.44953756996243</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.45790571887084</v>
+        <v>20.54029328519992</v>
       </c>
       <c r="C7">
-        <v>8.698338763539345</v>
+        <v>11.26203851782112</v>
       </c>
       <c r="D7">
-        <v>5.805828674587278</v>
+        <v>6.34964907415936</v>
       </c>
       <c r="E7">
-        <v>11.22665784670602</v>
+        <v>6.77015148358525</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>3.654954089110935</v>
+        <v>2.082844544839247</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>9.874198163306563</v>
+        <v>6.868008785394984</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>18.0384525394144</v>
+        <v>12.08362092523419</v>
       </c>
       <c r="O7">
-        <v>25.72307634315452</v>
+        <v>18.58865009106374</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>18.08234472201384</v>
+        <v>22.64424284966803</v>
       </c>
       <c r="C8">
-        <v>9.041777665073141</v>
+        <v>12.04984659937261</v>
       </c>
       <c r="D8">
-        <v>5.953557616243973</v>
+        <v>7.010112916584775</v>
       </c>
       <c r="E8">
-        <v>11.18102980599603</v>
+        <v>6.731257901448441</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>3.651354398335009</v>
+        <v>2.073394441879939</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>9.900793069767479</v>
+        <v>7.198241165674253</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>17.95018389723532</v>
+        <v>11.78389184123759</v>
       </c>
       <c r="O8">
-        <v>25.70845142469641</v>
+        <v>19.23503431770565</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>19.27412443786747</v>
+        <v>26.33620121322516</v>
       </c>
       <c r="C9">
-        <v>9.668617931840421</v>
+        <v>13.46449274021097</v>
       </c>
       <c r="D9">
-        <v>6.246683048012276</v>
+        <v>8.175399162390503</v>
       </c>
       <c r="E9">
-        <v>11.10545085208855</v>
+        <v>6.691393751602013</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3.644999100672438</v>
+        <v>2.055817749500057</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>9.967415219573718</v>
+        <v>7.838953133893137</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>17.79238473167417</v>
+        <v>11.2171959527755</v>
       </c>
       <c r="O9">
-        <v>25.7376802844897</v>
+        <v>20.61603889153911</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>20.11985487985555</v>
+        <v>28.7915134182153</v>
       </c>
       <c r="C10">
-        <v>10.09779095434224</v>
+        <v>14.42195019257332</v>
       </c>
       <c r="D10">
-        <v>6.461644001687021</v>
+        <v>8.95536498543437</v>
       </c>
       <c r="E10">
-        <v>11.05840387700759</v>
+        <v>6.686963445661432</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>3.640753973742433</v>
+        <v>2.04340293959355</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>10.02494121936246</v>
+        <v>8.301771973242184</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>17.68567183029592</v>
+        <v>10.81146086158351</v>
       </c>
       <c r="O10">
-        <v>25.79453113809845</v>
+        <v>21.69688782531191</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>20.49626152144512</v>
+        <v>29.85441242228097</v>
       </c>
       <c r="C11">
-        <v>10.28570061204379</v>
+        <v>14.83954354019188</v>
       </c>
       <c r="D11">
-        <v>6.558849212125477</v>
+        <v>9.294354773308346</v>
       </c>
       <c r="E11">
-        <v>11.03884441432294</v>
+        <v>6.690953930445414</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>3.638913808821585</v>
+        <v>2.03784315957382</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>10.05291459391588</v>
+        <v>8.510021435070209</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>17.639106121419</v>
+        <v>10.62866047249874</v>
       </c>
       <c r="O11">
-        <v>25.8280642285554</v>
+        <v>22.20251532735276</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>20.63746301707219</v>
+        <v>30.24928965424413</v>
       </c>
       <c r="C12">
-        <v>10.35576647966658</v>
+        <v>14.99509373922098</v>
       </c>
       <c r="D12">
-        <v>6.595535472731903</v>
+        <v>9.420508075573588</v>
       </c>
       <c r="E12">
-        <v>11.03170287691598</v>
+        <v>6.693381324500539</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>3.638229987688256</v>
+        <v>2.035748596159618</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>10.06376123798956</v>
+        <v>8.588516286517704</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>17.62175579818257</v>
+        <v>10.55964711847637</v>
       </c>
       <c r="O12">
-        <v>25.84186215594564</v>
+        <v>22.39596806050466</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>20.60711422974389</v>
+        <v>30.16458214151068</v>
       </c>
       <c r="C13">
-        <v>10.34072564961583</v>
+        <v>14.96170799342427</v>
       </c>
       <c r="D13">
-        <v>6.58764051977742</v>
+        <v>9.393436204541155</v>
       </c>
       <c r="E13">
-        <v>11.03322913544335</v>
+        <v>6.692816929025698</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>3.638376683337103</v>
+        <v>2.036199248053014</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>10.06141402946045</v>
+        <v>8.571627687839142</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>17.62547993203437</v>
+        <v>10.57450183004127</v>
       </c>
       <c r="O13">
-        <v>25.83884168679857</v>
+        <v>22.35421651585613</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>20.50790577215614</v>
+        <v>29.8870510148682</v>
       </c>
       <c r="C14">
-        <v>10.29148705197628</v>
+        <v>14.8523924822038</v>
       </c>
       <c r="D14">
-        <v>6.561870102283357</v>
+        <v>9.304777509282797</v>
       </c>
       <c r="E14">
-        <v>11.0382515590958</v>
+        <v>6.691134960881461</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>3.638857290123629</v>
+        <v>2.03767063304259</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>10.05380190280932</v>
+        <v>8.516486728377471</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>17.63767303415146</v>
+        <v>10.62297878050545</v>
       </c>
       <c r="O14">
-        <v>25.82917737794538</v>
+        <v>22.21839112250043</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>20.44695988547787</v>
+        <v>29.71606755355263</v>
       </c>
       <c r="C15">
-        <v>10.26118378503595</v>
+        <v>14.78509734063576</v>
       </c>
       <c r="D15">
-        <v>6.54606778761625</v>
+        <v>9.250184926026005</v>
       </c>
       <c r="E15">
-        <v>11.04136248416509</v>
+        <v>6.690225632334698</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>3.639153367758027</v>
+        <v>2.038573249155272</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>10.04917212252842</v>
+        <v>8.482662931650687</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>17.6451784877092</v>
+        <v>10.6526981569868</v>
       </c>
       <c r="O15">
-        <v>25.8234007935888</v>
+        <v>22.13545201487452</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>20.09507622206002</v>
+        <v>28.72097577378149</v>
       </c>
       <c r="C16">
-        <v>10.08535987621001</v>
+        <v>14.39429773788798</v>
       </c>
       <c r="D16">
-        <v>6.455276276250774</v>
+        <v>8.932897910352223</v>
       </c>
       <c r="E16">
-        <v>11.05971923131919</v>
+        <v>6.686827964574189</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>3.640876057189958</v>
+        <v>2.043767898916778</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>10.02314892113352</v>
+        <v>8.288113037869033</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>17.68875470100517</v>
+        <v>10.82343910838801</v>
       </c>
       <c r="O16">
-        <v>25.79249377491926</v>
+        <v>21.66412208871844</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>19.8769730493767</v>
+        <v>28.09678331940577</v>
       </c>
       <c r="C17">
-        <v>9.975593272341273</v>
+        <v>14.14995040908048</v>
       </c>
       <c r="D17">
-        <v>6.399400831426524</v>
+        <v>8.734242164552949</v>
       </c>
       <c r="E17">
-        <v>11.07145258471903</v>
+        <v>6.686318657345875</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>3.641956118758502</v>
+        <v>2.046975887485168</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>10.00764272666764</v>
+        <v>8.168148025460017</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>17.71599303611371</v>
+        <v>10.92860522202367</v>
       </c>
       <c r="O17">
-        <v>25.77549611531478</v>
+        <v>21.37852569199481</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>19.75075023781397</v>
+        <v>27.73266866815993</v>
       </c>
       <c r="C18">
-        <v>9.911771132809696</v>
+        <v>14.00771712305343</v>
       </c>
       <c r="D18">
-        <v>6.367210254175776</v>
+        <v>8.618487696405278</v>
       </c>
       <c r="E18">
-        <v>11.07837470293052</v>
+        <v>6.686587742939874</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>3.642585907851785</v>
+        <v>2.048829417859282</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>9.998894189547974</v>
+        <v>8.098933312352864</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>17.73184611730078</v>
+        <v>10.98926352835772</v>
       </c>
       <c r="O18">
-        <v>25.76644186942115</v>
+        <v>21.21557095126001</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>19.70788458747102</v>
+        <v>27.60850610745151</v>
       </c>
       <c r="C19">
-        <v>9.89004524882828</v>
+        <v>13.95926915528296</v>
       </c>
       <c r="D19">
-        <v>6.356303301518771</v>
+        <v>8.579037039337587</v>
       </c>
       <c r="E19">
-        <v>11.08074818732531</v>
+        <v>6.686773808613664</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>3.642800617055949</v>
+        <v>2.049458483483985</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>9.995961489466373</v>
+        <v>8.075462899732782</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>17.73724574058667</v>
+        <v>11.00983184401574</v>
       </c>
       <c r="O19">
-        <v>25.76350040591263</v>
+        <v>21.16062374724117</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>19.90027182645915</v>
+        <v>28.1637559970383</v>
       </c>
       <c r="C20">
-        <v>9.987349538245288</v>
+        <v>14.17613667564123</v>
       </c>
       <c r="D20">
-        <v>6.405354594894716</v>
+        <v>8.755543497798966</v>
       </c>
       <c r="E20">
-        <v>11.07018560065706</v>
+        <v>6.686314331679563</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>3.641840258303296</v>
+        <v>2.046633536960744</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>10.00927581140683</v>
+        <v>8.180940946308226</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>17.71307419656018</v>
+        <v>10.91739288279049</v>
       </c>
       <c r="O20">
-        <v>25.77723080442497</v>
+        <v>21.40879227768312</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>20.53708299397731</v>
+        <v>29.96877417131538</v>
       </c>
       <c r="C21">
-        <v>10.30597952786146</v>
+        <v>14.88457115234</v>
       </c>
       <c r="D21">
-        <v>6.569443148668483</v>
+        <v>9.33087832527506</v>
       </c>
       <c r="E21">
-        <v>11.03676915179049</v>
+        <v>6.691603698013489</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>3.638715771753919</v>
+        <v>2.037238173679483</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>10.05603093019963</v>
+        <v>8.532693092812258</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>17.63408395238733</v>
+        <v>10.60873462431048</v>
       </c>
       <c r="O21">
-        <v>25.83198620926658</v>
+        <v>22.25823260432179</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>20.94543554581456</v>
+        <v>31.10412336708929</v>
       </c>
       <c r="C22">
-        <v>10.50784601182544</v>
+        <v>15.33252488113065</v>
       </c>
       <c r="D22">
-        <v>6.67594927993144</v>
+        <v>9.694014492472656</v>
       </c>
       <c r="E22">
-        <v>11.01647551882548</v>
+        <v>6.700427357508117</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>3.63674953511708</v>
+        <v>2.031159771883289</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>10.08806415358011</v>
+        <v>8.760448806677276</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>17.58410874343071</v>
+        <v>10.40820469534312</v>
       </c>
       <c r="O22">
-        <v>25.87417919809993</v>
+        <v>22.82495201067147</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>20.72825026572563</v>
+        <v>30.50217004100348</v>
       </c>
       <c r="C23">
-        <v>10.40070112827279</v>
+        <v>15.09481754902374</v>
       </c>
       <c r="D23">
-        <v>6.619184765692003</v>
+        <v>9.501359271007697</v>
       </c>
       <c r="E23">
-        <v>11.02716507134855</v>
+        <v>6.695209000175392</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>3.637792040690115</v>
+        <v>2.034398900060997</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>10.07083434889517</v>
+        <v>8.639095582163236</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>17.61063098667409</v>
+        <v>10.51513762865623</v>
       </c>
       <c r="O23">
-        <v>25.85107524737335</v>
+        <v>22.52142726596519</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>19.88974103131321</v>
+        <v>28.13349403852519</v>
       </c>
       <c r="C24">
-        <v>9.982036757292525</v>
+        <v>14.16430332996898</v>
       </c>
       <c r="D24">
-        <v>6.402663104242731</v>
+        <v>8.745917980729022</v>
       </c>
       <c r="E24">
-        <v>11.07075785452475</v>
+        <v>6.686314541101714</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>3.64189261125007</v>
+        <v>2.04678828479497</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>10.00853697573215</v>
+        <v>8.175158027802635</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>17.71439320133883</v>
+        <v>10.92246136463887</v>
       </c>
       <c r="O24">
-        <v>25.77644431481546</v>
+        <v>21.39510489484657</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>18.95629179661424</v>
+        <v>25.38315247058953</v>
       </c>
       <c r="C25">
-        <v>9.504356630835371</v>
+        <v>13.09605644187476</v>
       </c>
       <c r="D25">
-        <v>6.167279598646601</v>
+        <v>7.87376157387874</v>
       </c>
       <c r="E25">
-        <v>11.12440824784999</v>
+        <v>6.698011997050362</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>3.646643548440361</v>
+        <v>2.060478700303578</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>9.947866568177682</v>
+        <v>7.666781138240133</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>17.83344675074333</v>
+        <v>11.36846863997919</v>
       </c>
       <c r="O25">
-        <v>25.72356076127379</v>
+        <v>20.23061398237506</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_56/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_56/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>23.18469125533873</v>
+        <v>20.39511991748584</v>
       </c>
       <c r="C2">
-        <v>12.2546204445881</v>
+        <v>18.19088080237191</v>
       </c>
       <c r="D2">
-        <v>7.180169352797185</v>
+        <v>7.160461249570601</v>
       </c>
       <c r="E2">
-        <v>6.72308833004657</v>
+        <v>13.34892615590167</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.070901438084706</v>
+        <v>46.4972619845752</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2.062123882419672</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>3.015883508087863</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>13.50696162408252</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>20.07662751143543</v>
       </c>
       <c r="L2">
-        <v>7.287412842431805</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>11.70418456588182</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>19.41796391875731</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>18.02804494098309</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>21.58415989170071</v>
+        <v>19.04835531136959</v>
       </c>
       <c r="C3">
-        <v>11.65092829340789</v>
+        <v>16.97677361180532</v>
       </c>
       <c r="D3">
-        <v>6.67703439298602</v>
+        <v>6.65992249986337</v>
       </c>
       <c r="E3">
-        <v>6.749473683676094</v>
+        <v>12.57924853327198</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.078206318238668</v>
+        <v>44.04609089243795</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1.786009988503466</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>2.761869615237418</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>13.09597714064281</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>19.55084572974066</v>
       </c>
       <c r="L3">
-        <v>7.028382195040265</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>11.93701073553588</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>18.89611850568194</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>16.93130794840386</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>20.54613012049473</v>
+        <v>18.17262967875814</v>
       </c>
       <c r="C4">
-        <v>11.26420129689592</v>
+        <v>16.19470427388402</v>
       </c>
       <c r="D4">
-        <v>6.351478086281608</v>
+        <v>6.335925564970051</v>
       </c>
       <c r="E4">
-        <v>6.770028510080825</v>
+        <v>12.08431768227694</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.082818883590157</v>
+        <v>42.4822832273664</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1.611299588229371</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>2.602173364804087</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>12.84032795684298</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>19.22291937679469</v>
       </c>
       <c r="L4">
-        <v>6.868885730144049</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>12.08281261814798</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>18.59029580124925</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>16.22381745176343</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>20.10912068126052</v>
+        <v>17.80270661005635</v>
       </c>
       <c r="C5">
-        <v>11.10265730360497</v>
+        <v>15.87690507143757</v>
       </c>
       <c r="D5">
-        <v>6.218733343427385</v>
+        <v>6.208080704604697</v>
       </c>
       <c r="E5">
-        <v>6.779459797722039</v>
+        <v>11.87495312918643</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.08473170681462</v>
+        <v>41.78430112245115</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1.58319877670214</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>2.536568735178517</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>12.7257290119769</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>19.06789054197095</v>
       </c>
       <c r="L5">
-        <v>6.803861376836084</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>12.14297511377771</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>18.46938838225888</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>15.92842578381581</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>20.03570705451884</v>
+        <v>17.73965522781747</v>
       </c>
       <c r="C6">
-        <v>11.07559749704376</v>
+        <v>15.83600943305718</v>
       </c>
       <c r="D6">
-        <v>6.199234079466342</v>
+        <v>6.188652097311524</v>
       </c>
       <c r="E6">
-        <v>6.781088438267817</v>
+        <v>11.83734246384398</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.085051365031566</v>
+        <v>41.61068387229403</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1.596037574880026</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>2.526371186462984</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>12.69481304101123</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>19.01737017970002</v>
       </c>
       <c r="L6">
-        <v>6.793065058372166</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>12.15301106344242</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>18.44953756996243</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>15.88059925138434</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>20.54029328519992</v>
+        <v>18.16533621624094</v>
       </c>
       <c r="C7">
-        <v>11.26203851782112</v>
+        <v>16.22357849100438</v>
       </c>
       <c r="D7">
-        <v>6.34964907415936</v>
+        <v>6.333975489080321</v>
       </c>
       <c r="E7">
-        <v>6.77015148358525</v>
+        <v>12.07480260448082</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.082844544839247</v>
+        <v>42.32042029834501</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1.609365347618028</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>2.602868419827685</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>12.8067549941009</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>19.1538851355375</v>
       </c>
       <c r="L7">
-        <v>6.868008785394984</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>12.08362092523419</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>18.58865009106374</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>16.22448922097658</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>22.64424284966803</v>
+        <v>19.9379174245447</v>
       </c>
       <c r="C8">
-        <v>12.04984659937261</v>
+        <v>17.82014062349364</v>
       </c>
       <c r="D8">
-        <v>7.010112916584775</v>
+        <v>6.991125164274472</v>
       </c>
       <c r="E8">
-        <v>6.731257901448441</v>
+        <v>13.07983872108326</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.073394441879939</v>
+        <v>45.47531812701482</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1.966752825391964</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>2.930214840364115</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>13.32514303724824</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>19.8105242433137</v>
       </c>
       <c r="L8">
-        <v>7.198241165674253</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>11.78389184123759</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>19.23503431770565</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>17.66263289940898</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>26.33620121322516</v>
+        <v>23.03376516524188</v>
       </c>
       <c r="C9">
-        <v>13.46449274021097</v>
+        <v>20.61146639734073</v>
       </c>
       <c r="D9">
-        <v>8.175399162390503</v>
+        <v>8.149816848019343</v>
       </c>
       <c r="E9">
-        <v>6.691393751602013</v>
+        <v>14.88541218563843</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.055817749500057</v>
+        <v>51.42632247034018</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2.629886719402759</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>3.543371419060029</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>14.36629492585002</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>21.16907435666975</v>
       </c>
       <c r="L9">
-        <v>7.838953133893137</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>11.2171959527755</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>20.61603889153911</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>20.20328149465855</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>28.7915134182153</v>
+        <v>25.13795308484849</v>
       </c>
       <c r="C10">
-        <v>14.42195019257332</v>
+        <v>22.494542921308</v>
       </c>
       <c r="D10">
-        <v>8.95536498543437</v>
+        <v>8.923365561403051</v>
       </c>
       <c r="E10">
-        <v>6.686963445661432</v>
+        <v>15.60799036542765</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.04340293959355</v>
+        <v>54.80641063875271</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>3.068976249706624</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>3.970762320556194</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>14.95397926570659</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>21.84371810208937</v>
       </c>
       <c r="L10">
-        <v>8.301771973242184</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>10.81146086158351</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>21.69688782531191</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>21.63705980555232</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>29.85441242228097</v>
+        <v>26.55971847197034</v>
       </c>
       <c r="C11">
-        <v>14.83954354019188</v>
+        <v>23.26488041578108</v>
       </c>
       <c r="D11">
-        <v>9.294354773308346</v>
+        <v>9.249437741852693</v>
       </c>
       <c r="E11">
-        <v>6.690953930445414</v>
+        <v>12.07773693587914</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.03784315957382</v>
+        <v>50.80822345235847</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>3.66203576218725</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>4.093499876227586</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>13.96310668724478</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>19.80366239889754</v>
       </c>
       <c r="L11">
-        <v>8.510021435070209</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>10.62866047249874</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>22.20251532735276</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>19.96684567169439</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>30.24928965424413</v>
+        <v>27.34562190338339</v>
       </c>
       <c r="C12">
-        <v>14.99509373922098</v>
+        <v>23.49824357500683</v>
       </c>
       <c r="D12">
-        <v>9.420508075573588</v>
+        <v>9.36739890889759</v>
       </c>
       <c r="E12">
-        <v>6.693381324500539</v>
+        <v>9.897770118726161</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.035748596159618</v>
+        <v>46.88055636667219</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>4.684364586417799</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>4.116030825356587</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>13.03802961844791</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>18.03360382542276</v>
       </c>
       <c r="L12">
-        <v>8.588516286517704</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>10.55964711847637</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>22.39596806050466</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>18.23709606182012</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>30.16458214151068</v>
+        <v>27.71250990227833</v>
       </c>
       <c r="C13">
-        <v>14.96170799342427</v>
+        <v>23.37852056082381</v>
       </c>
       <c r="D13">
-        <v>9.393436204541155</v>
+        <v>9.335547502788495</v>
       </c>
       <c r="E13">
-        <v>6.692816929025698</v>
+        <v>9.204550583238943</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.036199248053014</v>
+        <v>42.45292361476613</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>5.855594050979135</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>4.063742633516288</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>12.04713647507135</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>16.25370455541375</v>
       </c>
       <c r="L13">
-        <v>8.571627687839142</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>10.57450183004127</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>22.35421651585613</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>16.31008212860432</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>29.8870510148682</v>
+        <v>27.78591471755476</v>
       </c>
       <c r="C14">
-        <v>14.8523924822038</v>
+        <v>23.14262301702364</v>
       </c>
       <c r="D14">
-        <v>9.304777509282797</v>
+        <v>9.245331898273696</v>
       </c>
       <c r="E14">
-        <v>6.691134960881461</v>
+        <v>9.7970056416289</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.03767063304259</v>
+        <v>39.03099020458025</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>6.730066458322205</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>3.994844304863677</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>11.31152193654027</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>14.99408670906869</v>
       </c>
       <c r="L14">
-        <v>8.516486728377471</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>10.62297878050545</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>22.21839112250043</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>14.84717023479769</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>29.71606755355263</v>
+        <v>27.71296500017727</v>
       </c>
       <c r="C15">
-        <v>14.78509734063576</v>
+        <v>23.01817160492908</v>
       </c>
       <c r="D15">
-        <v>9.250184926026005</v>
+        <v>9.190916499404777</v>
       </c>
       <c r="E15">
-        <v>6.690225632334698</v>
+        <v>10.04862064544023</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.038573249155272</v>
+        <v>38.03247189238883</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>6.928844220167179</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>3.961509596069049</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>11.10842851511544</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>14.66614802286421</v>
       </c>
       <c r="L15">
-        <v>8.482662931650687</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>10.6526981569868</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>22.13545201487452</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>14.44628491291687</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>28.72097577378149</v>
+        <v>26.8146090903333</v>
       </c>
       <c r="C16">
-        <v>14.39429773788798</v>
+        <v>22.28250153619651</v>
       </c>
       <c r="D16">
-        <v>8.932897910352223</v>
+        <v>8.878388776592045</v>
       </c>
       <c r="E16">
-        <v>6.686827964574189</v>
+        <v>9.734643015534566</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.043767898916778</v>
+        <v>37.08114267770447</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>6.641207558041288</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>3.791365908909804</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>11.00148092399666</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>14.65799686677588</v>
       </c>
       <c r="L16">
-        <v>8.288113037869033</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>10.82343910838801</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>21.66412208871844</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>14.09955581471326</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>28.09678331940577</v>
+        <v>26.06651842701027</v>
       </c>
       <c r="C17">
-        <v>14.14995040908048</v>
+        <v>21.8381647806769</v>
       </c>
       <c r="D17">
-        <v>8.734242164552949</v>
+        <v>8.683914196475524</v>
       </c>
       <c r="E17">
-        <v>6.686318657345875</v>
+        <v>8.977162698713437</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.046975887485168</v>
+        <v>38.25851769527812</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>5.90245836199252</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>3.696756408234851</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>11.31863769687548</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>15.31980214895702</v>
       </c>
       <c r="L17">
-        <v>8.168148025460017</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>10.92860522202367</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>21.37852569199481</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>14.64710571557087</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>27.73266866815993</v>
+        <v>25.3787612650493</v>
       </c>
       <c r="C18">
-        <v>14.00771712305343</v>
+        <v>21.58342133861148</v>
       </c>
       <c r="D18">
-        <v>8.618487696405278</v>
+        <v>8.573046563671998</v>
       </c>
       <c r="E18">
-        <v>6.686587742939874</v>
+        <v>8.745188768508932</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.048829417859282</v>
+        <v>41.51077283331703</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>4.747085738136365</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>3.659143571062503</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>12.06118578183762</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>16.70316036819613</v>
       </c>
       <c r="L18">
-        <v>8.098933312352864</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>10.98926352835772</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>21.21557095126001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>16.02931712791191</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>27.60850610745151</v>
+        <v>24.80260500613428</v>
       </c>
       <c r="C19">
-        <v>13.95926915528296</v>
+        <v>21.55827697293821</v>
       </c>
       <c r="D19">
-        <v>8.579037039337587</v>
+        <v>8.539346013419284</v>
       </c>
       <c r="E19">
-        <v>6.686773808613664</v>
+        <v>10.41411714263181</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.049458483483985</v>
+        <v>45.90498018700445</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>3.544661446249655</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>3.681557545158985</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>13.04040176727501</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>18.49164250049741</v>
       </c>
       <c r="L19">
-        <v>8.075462899732782</v>
+        <v>0</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>11.00983184401574</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>21.16062374724117</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>17.96609456575145</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>28.1637559970383</v>
+        <v>24.59796232757494</v>
       </c>
       <c r="C20">
-        <v>14.17613667564123</v>
+        <v>22.08957743870988</v>
       </c>
       <c r="D20">
-        <v>8.755543497798966</v>
+        <v>8.724726285281946</v>
       </c>
       <c r="E20">
-        <v>6.686314331679563</v>
+        <v>15.38075906359444</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.046633536960744</v>
+        <v>53.52577783741164</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2.950076737982587</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>3.862367963010201</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>14.70734277454092</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>21.47057230517386</v>
       </c>
       <c r="L20">
-        <v>8.180940946308226</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>10.91739288279049</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>21.40879227768312</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>21.26825570012497</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>29.96877417131538</v>
+        <v>26.04958418692178</v>
       </c>
       <c r="C21">
-        <v>14.88457115234</v>
+        <v>23.47788411880267</v>
       </c>
       <c r="D21">
-        <v>9.33087832527506</v>
+        <v>9.296841580850183</v>
       </c>
       <c r="E21">
-        <v>6.691603698013489</v>
+        <v>16.68150995411078</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.037238173679483</v>
+        <v>57.08338409128891</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>3.323542858708351</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>4.199189301815189</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>15.39107065903479</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>22.43129179704514</v>
       </c>
       <c r="L21">
-        <v>8.532693092812258</v>
+        <v>0</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>10.60873462431048</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>22.25823260432179</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>22.73075648253012</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>31.10412336708929</v>
+        <v>26.99167468013442</v>
       </c>
       <c r="C22">
-        <v>15.33252488113065</v>
+        <v>24.32141594097577</v>
       </c>
       <c r="D22">
-        <v>9.694014492472656</v>
+        <v>9.65742328693552</v>
       </c>
       <c r="E22">
-        <v>6.700427357508117</v>
+        <v>17.26323715925088</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.031159771883289</v>
+        <v>59.17516325798918</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>3.551519462693879</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>4.412079179985987</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>15.79457990587953</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>22.99087341718671</v>
       </c>
       <c r="L22">
-        <v>8.760448806677276</v>
+        <v>0</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>10.40820469534312</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>22.82495201067147</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>23.51398533483547</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>30.50217004100348</v>
+        <v>26.4947179698429</v>
       </c>
       <c r="C23">
-        <v>15.09481754902374</v>
+        <v>23.84599453836612</v>
       </c>
       <c r="D23">
-        <v>9.501359271007697</v>
+        <v>9.466347729904747</v>
       </c>
       <c r="E23">
-        <v>6.695209000175392</v>
+        <v>16.9605261816007</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.034398900060997</v>
+        <v>58.19996539427706</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>3.43108295363447</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>4.297483592239914</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>15.61125187120668</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>22.76049896864135</v>
       </c>
       <c r="L23">
-        <v>8.639095582163236</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>10.51513762865623</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>22.52142726596519</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>23.09481004166176</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>28.13349403852519</v>
+        <v>24.52873513272128</v>
       </c>
       <c r="C24">
-        <v>14.16430332996898</v>
+        <v>22.02930640837203</v>
       </c>
       <c r="D24">
-        <v>8.745917980729022</v>
+        <v>8.716342279547963</v>
       </c>
       <c r="E24">
-        <v>6.686314541101714</v>
+        <v>15.76881509177574</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.04678828479497</v>
+        <v>54.18497073406653</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2.967473957366194</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>3.861337255080299</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>14.85928540441902</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>21.77227018989142</v>
       </c>
       <c r="L24">
-        <v>8.175158027802635</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>10.92246136463887</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>21.39510489484657</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>21.45310045090755</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>25.38315247058953</v>
+        <v>22.23317586176514</v>
       </c>
       <c r="C25">
-        <v>13.09605644187476</v>
+        <v>19.93604214141009</v>
       </c>
       <c r="D25">
-        <v>7.87376157387874</v>
+        <v>7.849738327708769</v>
       </c>
       <c r="E25">
-        <v>6.698011997050362</v>
+        <v>14.40512621240688</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.060478700303578</v>
+        <v>49.63348641357401</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2.45285709364063</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>3.382002405897051</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>14.03544093983502</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>20.69465784693013</v>
       </c>
       <c r="L25">
-        <v>7.666781138240133</v>
+        <v>0</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>11.36846863997919</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>20.23061398237506</v>
+        <v>19.55216483137305</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_56/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_56/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.39511991748584</v>
+        <v>20.34799149621364</v>
       </c>
       <c r="C2">
-        <v>18.19088080237191</v>
+        <v>19.2787202863007</v>
       </c>
       <c r="D2">
-        <v>7.160461249570601</v>
+        <v>7.15628386580118</v>
       </c>
       <c r="E2">
-        <v>13.34892615590167</v>
+        <v>13.11520789760482</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>46.4972619845752</v>
+        <v>40.40994644227618</v>
       </c>
       <c r="H2">
-        <v>2.062123882419672</v>
+        <v>2.040232255535748</v>
       </c>
       <c r="I2">
-        <v>3.015883508087863</v>
+        <v>3.007539798089716</v>
       </c>
       <c r="J2">
-        <v>13.50696162408252</v>
+        <v>12.7578148510101</v>
       </c>
       <c r="K2">
-        <v>20.07662751143543</v>
+        <v>17.47531085018639</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>14.93502929697923</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>11.19123235776576</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>18.02804494098309</v>
+        <v>0</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>18.20968720587094</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.04835531136959</v>
+        <v>19.02888407104414</v>
       </c>
       <c r="C3">
-        <v>16.97677361180532</v>
+        <v>17.93997397732829</v>
       </c>
       <c r="D3">
-        <v>6.65992249986337</v>
+        <v>6.658784749035336</v>
       </c>
       <c r="E3">
-        <v>12.57924853327198</v>
+        <v>12.40990085877365</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>44.04609089243795</v>
+        <v>38.56107842885447</v>
       </c>
       <c r="H3">
-        <v>1.786009988503466</v>
+        <v>1.783816851493594</v>
       </c>
       <c r="I3">
-        <v>2.761869615237418</v>
+        <v>2.792464135479584</v>
       </c>
       <c r="J3">
-        <v>13.09597714064281</v>
+        <v>12.456112781987</v>
       </c>
       <c r="K3">
-        <v>19.55084572974066</v>
+        <v>17.24481846459863</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>14.91809214835997</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>10.81916372823251</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>16.93130794840386</v>
+        <v>0</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>17.10066695448234</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.17262967875814</v>
+        <v>18.1707370334779</v>
       </c>
       <c r="C4">
-        <v>16.19470427388402</v>
+        <v>17.07535866452012</v>
       </c>
       <c r="D4">
-        <v>6.335925564970051</v>
+        <v>6.336459127884418</v>
       </c>
       <c r="E4">
-        <v>12.08431768227694</v>
+        <v>11.95644557442614</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>42.4822832273664</v>
+        <v>37.38916794831789</v>
       </c>
       <c r="H4">
-        <v>1.611299588229371</v>
+        <v>1.621376933468458</v>
       </c>
       <c r="I4">
-        <v>2.602173364804087</v>
+        <v>2.657255673909651</v>
       </c>
       <c r="J4">
-        <v>12.84032795684298</v>
+        <v>12.26623106682149</v>
       </c>
       <c r="K4">
-        <v>19.22291937679469</v>
+        <v>17.10143847986476</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>14.90116430438676</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>10.60728074386579</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>16.22381745176343</v>
+        <v>0</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>16.3846591952408</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.80270661005635</v>
+        <v>17.80824272518081</v>
       </c>
       <c r="C5">
-        <v>15.87690507143757</v>
+        <v>16.72139757410769</v>
       </c>
       <c r="D5">
-        <v>6.208080704604697</v>
+        <v>6.208917069027222</v>
       </c>
       <c r="E5">
-        <v>11.87495312918643</v>
+        <v>11.76480483523346</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>41.78430112245115</v>
+        <v>36.86260762221429</v>
       </c>
       <c r="H5">
-        <v>1.58319877670214</v>
+        <v>1.567646307345577</v>
       </c>
       <c r="I5">
-        <v>2.536568735178517</v>
+        <v>2.602118321843939</v>
       </c>
       <c r="J5">
-        <v>12.7257290119769</v>
+        <v>12.17970293173238</v>
       </c>
       <c r="K5">
-        <v>19.06789054197095</v>
+        <v>17.02621408540203</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>14.87972403744701</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>10.51350989655742</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>15.92842578381581</v>
+        <v>0</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>16.08537515598652</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.73965522781747</v>
+        <v>17.74654207966002</v>
       </c>
       <c r="C6">
-        <v>15.83600943305718</v>
+        <v>16.67316689371826</v>
       </c>
       <c r="D6">
-        <v>6.188652097311524</v>
+        <v>6.189565323650097</v>
       </c>
       <c r="E6">
-        <v>11.83734246384398</v>
+        <v>11.7305402396627</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>41.61068387229403</v>
+        <v>36.72554145313734</v>
       </c>
       <c r="H6">
-        <v>1.596037574880026</v>
+        <v>1.579553141944175</v>
       </c>
       <c r="I6">
-        <v>2.526371186462984</v>
+        <v>2.594115322976731</v>
       </c>
       <c r="J6">
-        <v>12.69481304101123</v>
+        <v>12.15544293780848</v>
       </c>
       <c r="K6">
-        <v>19.01737017970002</v>
+        <v>16.99376922650096</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>14.86034033090879</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>10.48363964018009</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>15.88059925138434</v>
+        <v>0</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>16.03666093732581</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.16533621624094</v>
+        <v>18.16377229579225</v>
       </c>
       <c r="C7">
-        <v>16.22357849100438</v>
+        <v>17.08629097072996</v>
       </c>
       <c r="D7">
-        <v>6.333975489080321</v>
+        <v>6.33445915608478</v>
       </c>
       <c r="E7">
-        <v>12.07480260448082</v>
+        <v>11.94824079590442</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>42.32042029834501</v>
+        <v>37.30367672274066</v>
       </c>
       <c r="H7">
-        <v>1.609365347618028</v>
+        <v>1.619063995204744</v>
       </c>
       <c r="I7">
-        <v>2.602868419827685</v>
+        <v>2.658381486074009</v>
       </c>
       <c r="J7">
-        <v>12.8067549941009</v>
+        <v>12.16905592264113</v>
       </c>
       <c r="K7">
-        <v>19.1538851355375</v>
+        <v>17.02112881629294</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>14.83899542326594</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>10.54707442163417</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>16.22448922097658</v>
+        <v>0</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>16.38266368431521</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.9379174245447</v>
+        <v>19.90041897672418</v>
       </c>
       <c r="C8">
-        <v>17.82014062349364</v>
+        <v>18.81888393553426</v>
       </c>
       <c r="D8">
-        <v>6.991125164274472</v>
+        <v>6.987792882303954</v>
       </c>
       <c r="E8">
-        <v>13.07983872108326</v>
+        <v>12.869583948954</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>45.47531812701482</v>
+        <v>39.78497251475316</v>
       </c>
       <c r="H8">
-        <v>1.966752825391964</v>
+        <v>1.949939232601379</v>
       </c>
       <c r="I8">
-        <v>2.930214840364115</v>
+        <v>2.933928276859922</v>
       </c>
       <c r="J8">
-        <v>13.32514303724824</v>
+        <v>12.39790289270273</v>
       </c>
       <c r="K8">
-        <v>19.8105242433137</v>
+        <v>17.24517171470739</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>14.81692052241072</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>10.94266492562621</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>17.66263289940898</v>
+        <v>0</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>17.83326152438285</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.03376516524188</v>
+        <v>22.92900037617088</v>
       </c>
       <c r="C9">
-        <v>20.61146639734073</v>
+        <v>21.8861943076924</v>
       </c>
       <c r="D9">
-        <v>8.149816848019343</v>
+        <v>8.137458808867327</v>
       </c>
       <c r="E9">
-        <v>14.88541218563843</v>
+        <v>14.52317503383865</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>51.42632247034018</v>
+        <v>44.36420441739297</v>
       </c>
       <c r="H9">
-        <v>2.629886719402759</v>
+        <v>2.564049491210677</v>
       </c>
       <c r="I9">
-        <v>3.543371419060029</v>
+        <v>3.450872826329817</v>
       </c>
       <c r="J9">
-        <v>14.36629492585002</v>
+        <v>13.10749073975767</v>
       </c>
       <c r="K9">
-        <v>21.16907435666975</v>
+        <v>17.85696254847675</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>14.86381822261281</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>11.97955167919116</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>20.20328149465855</v>
+        <v>0</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>20.39850004718561</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.13795308484849</v>
+        <v>24.9865286712221</v>
       </c>
       <c r="C10">
-        <v>22.494542921308</v>
+        <v>23.85713027388235</v>
       </c>
       <c r="D10">
-        <v>8.923365561403051</v>
+        <v>8.902642419662072</v>
       </c>
       <c r="E10">
-        <v>15.60799036542765</v>
+        <v>15.14491831108155</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>54.80641063875271</v>
+        <v>47.22967608121159</v>
       </c>
       <c r="H10">
-        <v>3.068976249706624</v>
+        <v>2.965998335831115</v>
       </c>
       <c r="I10">
-        <v>3.970762320556194</v>
+        <v>3.807966080158791</v>
       </c>
       <c r="J10">
-        <v>14.95397926570659</v>
+        <v>13.12859196903702</v>
       </c>
       <c r="K10">
-        <v>21.84371810208937</v>
+        <v>17.95062857883731</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>14.62445890445124</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>12.51097638948373</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>21.63705980555232</v>
+        <v>0</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>21.83253225296779</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.55971847197034</v>
+        <v>26.40643794624424</v>
       </c>
       <c r="C11">
-        <v>23.26488041578108</v>
+        <v>24.36540229092092</v>
       </c>
       <c r="D11">
-        <v>9.249437741852693</v>
+        <v>9.225748879385989</v>
       </c>
       <c r="E11">
-        <v>12.07773693587914</v>
+        <v>11.58357330458498</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>50.80822345235847</v>
+        <v>44.47445082269502</v>
       </c>
       <c r="H11">
-        <v>3.66203576218725</v>
+        <v>3.568925626368578</v>
       </c>
       <c r="I11">
-        <v>4.093499876227586</v>
+        <v>3.911260816666104</v>
       </c>
       <c r="J11">
-        <v>13.96310668724478</v>
+        <v>11.59508010217586</v>
       </c>
       <c r="K11">
-        <v>19.80366239889754</v>
+        <v>16.04766956393183</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>13.18680834091154</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>11.16415204021309</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>19.96684567169439</v>
+        <v>0</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>20.12224626425565</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.34562190338339</v>
+        <v>27.19926598653836</v>
       </c>
       <c r="C12">
-        <v>23.49824357500683</v>
+        <v>24.39823297525986</v>
       </c>
       <c r="D12">
-        <v>9.36739890889759</v>
+        <v>9.34320902073974</v>
       </c>
       <c r="E12">
-        <v>9.897770118726161</v>
+        <v>9.405467721893862</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>46.88055636667219</v>
+        <v>41.52483418211364</v>
       </c>
       <c r="H12">
-        <v>4.684364586417799</v>
+        <v>4.613460261457699</v>
       </c>
       <c r="I12">
-        <v>4.116030825356587</v>
+        <v>3.930817705552712</v>
       </c>
       <c r="J12">
-        <v>13.03802961844791</v>
+        <v>10.57015626966985</v>
       </c>
       <c r="K12">
-        <v>18.03360382542276</v>
+        <v>14.59898600757299</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>12.18215399020557</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>10.02793011621076</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>18.23709606182012</v>
+        <v>0</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>18.36480630212048</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.71250990227833</v>
+        <v>27.58052154715181</v>
       </c>
       <c r="C13">
-        <v>23.37852056082381</v>
+        <v>24.13003062803469</v>
       </c>
       <c r="D13">
-        <v>9.335547502788495</v>
+        <v>9.313023275152796</v>
       </c>
       <c r="E13">
-        <v>9.204550583238943</v>
+        <v>8.799353290496871</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>42.45292361476613</v>
+        <v>37.86489781868055</v>
       </c>
       <c r="H13">
-        <v>5.855594050979135</v>
+        <v>5.804973955282652</v>
       </c>
       <c r="I13">
-        <v>4.063742633516288</v>
+        <v>3.891145814146892</v>
       </c>
       <c r="J13">
-        <v>12.04713647507135</v>
+        <v>9.945141830931382</v>
       </c>
       <c r="K13">
-        <v>16.25370455541375</v>
+        <v>13.37684472537824</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>11.4064171094276</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>8.954832346735241</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>16.31008212860432</v>
+        <v>0</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>16.41964417326317</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.78591471755476</v>
+        <v>27.66713600389614</v>
       </c>
       <c r="C14">
-        <v>23.14262301702364</v>
+        <v>23.8092618617233</v>
       </c>
       <c r="D14">
-        <v>9.245331898273696</v>
+        <v>9.224874484901603</v>
       </c>
       <c r="E14">
-        <v>9.7970056416289</v>
+        <v>9.498444212592551</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>39.03099020458025</v>
+        <v>34.90287426667763</v>
       </c>
       <c r="H14">
-        <v>6.730066458322205</v>
+        <v>6.69113249563726</v>
       </c>
       <c r="I14">
-        <v>3.994844304863677</v>
+        <v>3.838065825395772</v>
       </c>
       <c r="J14">
-        <v>11.31152193654027</v>
+        <v>9.659813248578493</v>
       </c>
       <c r="K14">
-        <v>14.99408670906869</v>
+        <v>12.6134654043622</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>10.9530080404514</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>8.220985262279841</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>14.84717023479769</v>
+        <v>0</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>14.94725227114786</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.71296500017727</v>
+        <v>27.59918636894226</v>
       </c>
       <c r="C15">
-        <v>23.01817160492908</v>
+        <v>23.67198707710092</v>
       </c>
       <c r="D15">
-        <v>9.190916499404777</v>
+        <v>9.171417736634838</v>
       </c>
       <c r="E15">
-        <v>10.04862064544023</v>
+        <v>9.78230561803459</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>38.03247189238883</v>
+        <v>33.9875859168055</v>
       </c>
       <c r="H15">
-        <v>6.928844220167179</v>
+        <v>6.893128364327396</v>
       </c>
       <c r="I15">
-        <v>3.961509596069049</v>
+        <v>3.812541530700827</v>
       </c>
       <c r="J15">
-        <v>11.10842851511544</v>
+        <v>9.647719097632608</v>
       </c>
       <c r="K15">
-        <v>14.66614802286421</v>
+        <v>12.45127503687052</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>10.86630162226644</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>8.040717631002456</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>14.44628491291687</v>
+        <v>0</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>14.54543381029997</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.8146090903333</v>
+        <v>26.71769492303406</v>
       </c>
       <c r="C16">
-        <v>22.28250153619651</v>
+        <v>23.01162160117042</v>
       </c>
       <c r="D16">
-        <v>8.878388776592045</v>
+        <v>8.863075642657529</v>
       </c>
       <c r="E16">
-        <v>9.734643015534566</v>
+        <v>9.523783695521713</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>37.08114267770447</v>
+        <v>32.75462214449409</v>
       </c>
       <c r="H16">
-        <v>6.641207558041288</v>
+        <v>6.613051598043283</v>
       </c>
       <c r="I16">
-        <v>3.791365908909804</v>
+        <v>3.676096074499904</v>
       </c>
       <c r="J16">
-        <v>11.00148092399666</v>
+        <v>10.20175768366479</v>
       </c>
       <c r="K16">
-        <v>14.65799686677588</v>
+        <v>12.7738847021589</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>11.14682316058881</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>8.141414707528693</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>14.09955581471326</v>
+        <v>0</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>14.21256531543182</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.06651842701027</v>
+        <v>25.9757077194196</v>
       </c>
       <c r="C17">
-        <v>21.8381647806769</v>
+        <v>22.65694198842817</v>
       </c>
       <c r="D17">
-        <v>8.683914196475524</v>
+        <v>8.670553670623072</v>
       </c>
       <c r="E17">
-        <v>8.977162698713437</v>
+        <v>8.750873376794205</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>38.25851769527812</v>
+        <v>33.53113502489914</v>
       </c>
       <c r="H17">
-        <v>5.90245836199252</v>
+        <v>5.875291078986825</v>
       </c>
       <c r="I17">
-        <v>3.696756408234851</v>
+        <v>3.598348702236428</v>
       </c>
       <c r="J17">
-        <v>11.31863769687548</v>
+        <v>10.71941013544014</v>
       </c>
       <c r="K17">
-        <v>15.31980214895702</v>
+        <v>13.40282538142976</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>11.60417004123049</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>8.584181030001412</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>14.64710571557087</v>
+        <v>0</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>14.77440467365335</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.3787612650493</v>
+        <v>25.28482830623601</v>
       </c>
       <c r="C18">
-        <v>21.58342133861148</v>
+        <v>22.53967708362541</v>
       </c>
       <c r="D18">
-        <v>8.573046563671998</v>
+        <v>8.560146922795282</v>
       </c>
       <c r="E18">
-        <v>8.745188768508932</v>
+        <v>8.44662380786994</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>41.51077283331703</v>
+        <v>36.11751077784977</v>
       </c>
       <c r="H18">
-        <v>4.747085738136365</v>
+        <v>4.713970304165496</v>
       </c>
       <c r="I18">
-        <v>3.659143571062503</v>
+        <v>3.564086307480691</v>
       </c>
       <c r="J18">
-        <v>12.06118578183762</v>
+        <v>11.40595596897376</v>
       </c>
       <c r="K18">
-        <v>16.70316036819613</v>
+        <v>14.47495167471845</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>12.3523082362328</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>9.440532026402265</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>16.02931712791191</v>
+        <v>0</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>16.17672181820914</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.80260500613428</v>
+        <v>24.69793063186547</v>
       </c>
       <c r="C19">
-        <v>21.55827697293821</v>
+        <v>22.68144584203758</v>
       </c>
       <c r="D19">
-        <v>8.539346013419284</v>
+        <v>8.525692901507808</v>
       </c>
       <c r="E19">
-        <v>10.41411714263181</v>
+        <v>10.04966035397188</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>45.90498018700445</v>
+        <v>39.67599573643881</v>
       </c>
       <c r="H19">
-        <v>3.544661446249655</v>
+        <v>3.494973775409348</v>
       </c>
       <c r="I19">
-        <v>3.681557545158985</v>
+        <v>3.580534795199698</v>
       </c>
       <c r="J19">
-        <v>13.04040176727501</v>
+        <v>12.18917205022701</v>
       </c>
       <c r="K19">
-        <v>18.49164250049741</v>
+        <v>15.7933615193804</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>13.26685316180369</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>10.52170637601457</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>17.96609456575145</v>
+        <v>0</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>18.13648468633783</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>24.59796232757494</v>
+        <v>24.46009832208085</v>
       </c>
       <c r="C20">
-        <v>22.08957743870988</v>
+        <v>23.46028751566259</v>
       </c>
       <c r="D20">
-        <v>8.724726285281946</v>
+        <v>8.706769486192716</v>
       </c>
       <c r="E20">
-        <v>15.38075906359444</v>
+        <v>14.94656060634538</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>53.52577783741164</v>
+        <v>45.97735321744319</v>
       </c>
       <c r="H20">
-        <v>2.950076737982587</v>
+        <v>2.859203879679237</v>
       </c>
       <c r="I20">
-        <v>3.862367963010201</v>
+        <v>3.724703694682227</v>
       </c>
       <c r="J20">
-        <v>14.70734277454092</v>
+        <v>13.26726683633874</v>
       </c>
       <c r="K20">
-        <v>21.47057230517386</v>
+        <v>17.84719611198797</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>14.6327209832133</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>12.30506986456467</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>21.26825570012497</v>
+        <v>0</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>21.46819249091115</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.04958418692178</v>
+        <v>25.87094695873411</v>
       </c>
       <c r="C21">
-        <v>23.47788411880267</v>
+        <v>24.74753464917283</v>
       </c>
       <c r="D21">
-        <v>9.296841580850183</v>
+        <v>9.269735978326461</v>
       </c>
       <c r="E21">
-        <v>16.68150995411078</v>
+        <v>16.17094196086963</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>57.08338409128891</v>
+        <v>49.79195283259639</v>
       </c>
       <c r="H21">
-        <v>3.323542858708351</v>
+        <v>3.192827370209241</v>
       </c>
       <c r="I21">
-        <v>4.199189301815189</v>
+        <v>3.99111994583745</v>
       </c>
       <c r="J21">
-        <v>15.39107065903479</v>
+        <v>12.33429596373482</v>
       </c>
       <c r="K21">
-        <v>22.43129179704514</v>
+        <v>17.833765518846</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>14.38893226516177</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>12.65509274455703</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>22.73075648253012</v>
+        <v>0</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>22.90402419293454</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>26.99167468013442</v>
+        <v>26.78701912791975</v>
       </c>
       <c r="C22">
-        <v>24.32141594097577</v>
+        <v>25.50582374619024</v>
       </c>
       <c r="D22">
-        <v>9.65742328693552</v>
+        <v>9.623882443002445</v>
       </c>
       <c r="E22">
-        <v>17.26323715925088</v>
+        <v>16.70562746405329</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>59.17516325798918</v>
+        <v>52.1491058675651</v>
       </c>
       <c r="H22">
-        <v>3.551519462693879</v>
+        <v>3.395160730450122</v>
       </c>
       <c r="I22">
-        <v>4.412079179985987</v>
+        <v>4.157440239198178</v>
       </c>
       <c r="J22">
-        <v>15.79457990587953</v>
+        <v>11.63751553466259</v>
       </c>
       <c r="K22">
-        <v>22.99087341718671</v>
+        <v>17.75762407769545</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>14.18263827399589</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>12.83506377614753</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>23.51398533483547</v>
+        <v>0</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>23.66649576297191</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>26.4947179698429</v>
+        <v>26.30364485951154</v>
       </c>
       <c r="C23">
-        <v>23.84599453836612</v>
+        <v>25.10545767102485</v>
       </c>
       <c r="D23">
-        <v>9.466347729904747</v>
+        <v>9.436461664672072</v>
       </c>
       <c r="E23">
-        <v>16.9605261816007</v>
+        <v>16.42595607753525</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>58.19996539427706</v>
+        <v>50.90049053539959</v>
       </c>
       <c r="H23">
-        <v>3.43108295363447</v>
+        <v>3.289287920786232</v>
       </c>
       <c r="I23">
-        <v>4.297483592239914</v>
+        <v>4.06766008840156</v>
       </c>
       <c r="J23">
-        <v>15.61125187120668</v>
+        <v>12.18635265716691</v>
       </c>
       <c r="K23">
-        <v>22.76049896864135</v>
+        <v>17.91161563567718</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>14.37022578947719</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>12.83056660293796</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>23.09481004166176</v>
+        <v>0</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>23.26302576119776</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>24.52873513272128</v>
+        <v>24.38913768245541</v>
       </c>
       <c r="C24">
-        <v>22.02930640837203</v>
+        <v>23.42197656551348</v>
       </c>
       <c r="D24">
-        <v>8.716342279547963</v>
+        <v>8.698256932175887</v>
       </c>
       <c r="E24">
-        <v>15.76881509177574</v>
+        <v>15.33185689082431</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>54.18497073406653</v>
+        <v>46.51670570883362</v>
       </c>
       <c r="H24">
-        <v>2.967473957366194</v>
+        <v>2.875691055210806</v>
       </c>
       <c r="I24">
-        <v>3.861337255080299</v>
+        <v>3.720509630609957</v>
       </c>
       <c r="J24">
-        <v>14.85928540441902</v>
+        <v>13.39995331022846</v>
       </c>
       <c r="K24">
-        <v>21.77227018989142</v>
+        <v>18.08595587513545</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>14.80413725284695</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>12.49240893891112</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>21.45310045090755</v>
+        <v>0</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>21.65621554613874</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.23317586176514</v>
+        <v>22.14702555338063</v>
       </c>
       <c r="C25">
-        <v>19.93604214141009</v>
+        <v>21.15314975888693</v>
       </c>
       <c r="D25">
-        <v>7.849738327708769</v>
+        <v>7.840231272403768</v>
       </c>
       <c r="E25">
-        <v>14.40512621240688</v>
+        <v>14.08415053534155</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>49.63348641357401</v>
+        <v>42.88751308505322</v>
       </c>
       <c r="H25">
-        <v>2.45285709364063</v>
+        <v>2.401294049458316</v>
       </c>
       <c r="I25">
-        <v>3.382002405897051</v>
+        <v>3.318497549602862</v>
       </c>
       <c r="J25">
-        <v>14.03544093983502</v>
+        <v>12.96792468893515</v>
       </c>
       <c r="K25">
-        <v>20.69465784693013</v>
+        <v>17.63546789993153</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>14.81527267236527</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>11.64257624740634</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>19.55216483137305</v>
+        <v>0</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
+        <v>19.74323813249175</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
